--- a/biology/Médecine/Société_française_de_myologie/Société_française_de_myologie.xlsx
+++ b/biology/Médecine/Société_française_de_myologie/Société_française_de_myologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+          <t>Société_française_de_myologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société française de myologie (SFM) est une société savante[1] fondée en 2002 par une équipe réunie autour de Michel Fardeau[2],[3]. Elle a pour but de promouvoir la myologie dans tous ses aspects universitaires et académiques, de lui donner une visibilité nationale, d’encourager les collaborations interdisciplinaires, de renforcer son enseignement et d’établir des relations étroites avec les Sociétés homologues en particulier européennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société française de myologie (SFM) est une société savante fondée en 2002 par une équipe réunie autour de Michel Fardeau,. Elle a pour but de promouvoir la myologie dans tous ses aspects universitaires et académiques, de lui donner une visibilité nationale, d’encourager les collaborations interdisciplinaires, de renforcer son enseignement et d’établir des relations étroites avec les Sociétés homologues en particulier européennes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+          <t>Société_française_de_myologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’étude de la biologie et de la pathologie du tissu musculaire est devenue, particulièrement au cours de ces trois dernières décennies, un véritable champ disciplinaire, avec ses spécificités scientifiques, un large domaine d’applications médicales, et d’importantes implications médico-sociales.
 Les médecins et biologistes qui travaillent dans ce champ viennent pour la plupart du domaine neurologique, mais également des domaines de la cardiologie, de la génétique, de la médecine interne, de la rééducation fonctionnelle et de toutes les disciplines biologiques situées en amont : biologies cellulaire et moléculaire, biochimie, histopathologie, imagerie médicale, physiologie, etc. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+          <t>Société_française_de_myologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,25 +558,170 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les moyens d'action de la SFM sont de 4 ordres: 
 Organisation des Journées de la Société française de myologie (JSFM)
-Publication des Cahiers de myologie[4]
+Publication des Cahiers de myologie
 Promotion des jeunes chercheurs et cliniciens par la remise de prix
-Favoriser des actions autour de la myologie
-Organisation des Journées de la Société française de myologie (JSFM)
-Chaque année, les journées de la Société française de myologie (JSFM) sont des rendez-vous importants de la communauté myologique francophone rassemblant chercheurs et cliniciens et permettant de présenter les travaux les plus récents dans le domaine de la myologie.
-Ces journées comportent plusieurs sessions : sessions GEM (Groupe d’Études en Myologie)[5], sessions de myologie fondamentale, sessions communes cliniciens/chercheurs et sessions d’enseignement mixte cliniciens/chercheurs de la filière de santé maladie rare neuromusculaire FILNEMUS[6]
+Favoriser des actions autour de la myologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Organisation des Journées de la Société française de myologie (JSFM)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, les journées de la Société française de myologie (JSFM) sont des rendez-vous importants de la communauté myologique francophone rassemblant chercheurs et cliniciens et permettant de présenter les travaux les plus récents dans le domaine de la myologie.
+Ces journées comportent plusieurs sessions : sessions GEM (Groupe d’Études en Myologie), sessions de myologie fondamentale, sessions communes cliniciens/chercheurs et sessions d’enseignement mixte cliniciens/chercheurs de la filière de santé maladie rare neuromusculaire FILNEMUS
 Les JSFM se tiennent chaque année en France, dans une ville différente, coorganisées par les membres du bureau de la SFM et par le comité local d’organisation.
 Lors des JSFM, la SFM valorise les travaux de jeunes chercheurs et jeunes médecins au travers de la présentation de leurs résultats et par la remise de différents prix.
 Lieux des congrès :
-Publication des Cahiers de myologie
-Les Cahiers de myologie[4] sont une revue d'informations francophones destinées aux professionnels du milieu médical, du secteur paramédical et du domaine scientifique, concernés ou intéressés par une discipline en plein développement, la myologie. Les deux numéros annuels des « Cahiers de Myologie »[4]  publiés en mai et en novembre sont consultables en ligne sur le site d’EDP Sciences[7], maison d’édition spécialisée de revues médico‐scientifiques de haut niveau. Le numéro publié en novembre lors des Journées annuelles de la SFM fait l’objet d’une publication papier sous la forme d’un numéro hors‐série de la revue Médecine/Sciences (M/S)[8]. La revue se propose de traiter de sujets se rapportant aux tissus musculaires (squelettique, lisse et cardiaque) dans leurs aspects fondamentaux, notamment biologiques et physiologiques, chez l'homme et chez l'animal ainsi que dans leurs aspects cliniques. La revue comporte des articles de synthèse ou des mises au point dans tous les domaines de la myologie : physiologie, biologie cellulaire et moléculaire, clinique, physiopathologie, explorations diagnostiques, prise en charge des patients, sans oublier les thérapies innovantes. Des notes historiques, des points de vue d'experts en myologie et des cas cliniques y sont présentés. Des informations, des actualités professionnelles et associatives concernant les réseaux français et étrangers de myologie y figurent également.
-Promotion des jeunes chercheurs et cliniciens par la remise de prix
-La Société française de myologie valorise les travaux des jeunes chercheurs et médecins lors des journées de la Société française de myologie (JSFM) et par la remise de prix dans les catégories “Communications Orales” et “Posters”. Le prix Master de la Société française de myologie récompense un étudiant pour la qualité de son Master 2 et contribue au financement de sa thèse.
-Prix Master de la SFM
-Le prix « Master » de la Société française de myologie récompense chaque année un étudiant pour la qualité de son Master 2 dans le domaine de la myologie et contribue au financement de sa thèse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication des Cahiers de myologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cahiers de myologie sont une revue d'informations francophones destinées aux professionnels du milieu médical, du secteur paramédical et du domaine scientifique, concernés ou intéressés par une discipline en plein développement, la myologie. Les deux numéros annuels des « Cahiers de Myologie »  publiés en mai et en novembre sont consultables en ligne sur le site d’EDP Sciences, maison d’édition spécialisée de revues médico‐scientifiques de haut niveau. Le numéro publié en novembre lors des Journées annuelles de la SFM fait l’objet d’une publication papier sous la forme d’un numéro hors‐série de la revue Médecine/Sciences (M/S). La revue se propose de traiter de sujets se rapportant aux tissus musculaires (squelettique, lisse et cardiaque) dans leurs aspects fondamentaux, notamment biologiques et physiologiques, chez l'homme et chez l'animal ainsi que dans leurs aspects cliniques. La revue comporte des articles de synthèse ou des mises au point dans tous les domaines de la myologie : physiologie, biologie cellulaire et moléculaire, clinique, physiopathologie, explorations diagnostiques, prise en charge des patients, sans oublier les thérapies innovantes. Des notes historiques, des points de vue d'experts en myologie et des cas cliniques y sont présentés. Des informations, des actualités professionnelles et associatives concernant les réseaux français et étrangers de myologie y figurent également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société française de myologie valorise les travaux des jeunes chercheurs et médecins lors des journées de la Société française de myologie (JSFM) et par la remise de prix dans les catégories “Communications Orales” et “Posters”. Le prix Master de la Société française de myologie récompense un étudiant pour la qualité de son Master 2 et contribue au financement de sa thèse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Prix Master de la SFM</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix « Master » de la Société française de myologie récompense chaque année un étudiant pour la qualité de son Master 2 dans le domaine de la myologie et contribue au financement de sa thèse.
 2023: Rémi Kurdian (Université de Lille/Université McGill)
 2022 : Audrey Saugues  (INMG, Lyon)
 The myofiber intrinsic role of AMPKα2 in the regulation of myonuclear accretion
@@ -589,33 +748,228 @@
 2011 : Marine Theret (Institut Cochin, Paris)
 Rôle de l’AMPK dans la régulation de la polarisation des macrophages au cours de la régénération musculaire
 2010 : Enis Kostallari (IMRB, Créteil)
-Rôles des péricytes dans la niche vasculaire des cellules satellites[9]
+Rôles des péricytes dans la niche vasculaire des cellules satellites
 2009 : Alicia Mayeuf (Institut Pasteur, Paris)
 Rôle de Notch dans la régulation myogénique
 2008 : Marine Cacheux (GIN, Grenoble)
 Identification des domaines fonctionnels du Récepteur de la Ryanodine
 2007 : Valérie Tosch-Lienhart (IGBMC, Strasbourg)
 Physiopathologie des myopathies centronucléaires et caractérisation d’une famille de gènes impliqués dans plusieurs maladies neuromusculaires
-Prix spécial du jury
-2020 : Laurie Nemoz-Billet (IGFL, Lyon)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Prix spécial du jury</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020 : Laurie Nemoz-Billet (IGFL, Lyon)
 Rôle du Collagène XV-B exprimé par les progéniteurs musculaires dans le développement et la régénération des nerfs moteurs chez le poisson zèbre
 2019 : Markus Halliez (CRM, Paris)
 Study of the MuSK/Vangl2 pathway in neuromuscular junction formation and maintenance
-Prix Impulsion
-2023: Charlotte Gineste (IGBMC, Strasbourg)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Prix Impulsion</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023: Charlotte Gineste (IGBMC, Strasbourg)
 2022 : Alexis Boulinguiez (CRM, Paris)
 2021 : Alexis Osseni (INMG, Lyon)
 2020 : Gaëtan Juban (INMG, Lyon)
 2019 : Alicia Mayeuf (Institut Pasteur, Lille)
-Prix Interne en médecine
-2022 : Agathe Molinar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Prix Interne en médecine</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 : Agathe Molinar
 2021 : Cécile Fermon (HCL, Lyon)
-Prix DU Myologie
-2022 : Diane Beauvais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Prix DU Myologie</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 : Diane Beauvais
 2021 : Laure Gallay (HCL, Lyon)
 2021 : Marlène Barnay (CHU Bordeaux) 
-Prix Meilleure communication orale
-2023 : Liza Sarde (Institut Pasteur, Paris)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Prix Meilleure communication orale</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023 : Liza Sarde (Institut Pasteur, Paris)
 2023 : Abbas Jaber, (Généthon, Evry) 
 2023 : Virginia Zogglio, (IMRB, Créteil)
 2022 : Maxime Mathieu (RESTORE, Toulouse) 
@@ -635,8 +989,47 @@
 2015 : Ludovic Gaut (IBPS, Paris)
 2014 : Johann Böhm (IGBMC, Strasbourg)
 2013 : Claire Latroche (Institut Cochin et Institut Pasteur, Paris)
-Prix Meilleure communication affichée fondamentale
-2022: Marion Derome (GENETHON, Evry) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Prix Meilleure communication affichée fondamentale</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022: Marion Derome (GENETHON, Evry) 
 2022: Marine Daura (INMG, Lyon)
 2022: Robin Reynaud Dulaurier (ING, Grenoble)
 2021 : Cynthia Bezier (T3S, Paris) 
@@ -652,58 +1045,216 @@
 2015 : Jean-Baptiste Dupont (INSERM UMR 1089, AGT, Nantes)
 2014 : Luce Perie (INRA UMR 1061, Limoges)
 2013 : Francesca Puppo (INSERM GMGF UMR S_910, Marseille)
-Prix Meilleure communication affichée clinique
-2021 : Yann Brudey (CH Reims) 
-Prix Meilleure communication affichée en recherche translationnelle
-2021 : Djahid Kennouche (CH Reims) 
-Prix Isabelle Penisson-Besnier
-2021 : Mélina Bailly (LIBM, CHU St Étienne)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Prix Meilleure communication affichée clinique</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021 : Yann Brudey (CH Reims) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Prix Meilleure communication affichée en recherche translationnelle</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021 : Djahid Kennouche (CH Reims) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Prix Isabelle Penisson-Besnier</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021 : Mélina Bailly (LIBM, CHU St Étienne)
 2019 : Augustin Ogier (CRMBM, Marseille)
 2019 : Lola Lossard (HCL, Lyon)
 2018 : Audrey Aussy (INSERM UMR U1234, Rouen)
 2017 : Flavie Ader (INSERM, UMR_S 1166, Paris)
 2016 : Maroufou Jules Alao (Sénégal)
 2015 : Céline Dogan (IMRB, Créteil)
-Prix image
-2023: Anna Rausch De Traubenberg « Pop (He)art »  Premier prix 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Promotion des jeunes chercheurs et cliniciens par la remise de prix</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Prix image</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023: Anna Rausch De Traubenberg « Pop (He)art »  Premier prix 
 2023: Guillaume Diop « Invasion de méduses sur la côte bauloise » Prix spécial 
 2022 : Tanushri Dargar « in the depth of the ocean » Premier prix 
 2022 : Hadidja-Rose Mouigni/Mona Bensalah « plumes de paon » Prix spécial 
-Favoriser des actions autour de la myologie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Société_française_de_myologie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_myologie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Président(e)s</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Michel Fardeau[2],[3] (2002-2006)
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Michel Fardeau, (2002-2006)
 Claude Desnuelle (2007-2012)
 Françoise Chapon (2013-2014)
 Gisèle Bonne (2014-2018)
-Emmanuelle Salort-Campana[10] (2019-2021)
+Emmanuelle Salort-Campana (2019-2021)
 Guilhem Solé (2021-2023)
 Bénédicte Chazaud (2024-)</t>
         </is>
